--- a/biology/Zoologie/Elachistocleis_bumbameuboi/Elachistocleis_bumbameuboi.xlsx
+++ b/biology/Zoologie/Elachistocleis_bumbameuboi/Elachistocleis_bumbameuboi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elachistocleis bumbameuboi est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elachistocleis bumbameuboi est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Maranhão au Brésil[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Maranhão au Brésil,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Caramaschi, 2010 : Notes on the taxonomic status of Elachistocleis ovalis (Schneider, 1799) and description of five new species of Elachistocleis Parker, 1927 (Amphibia, Anura, Microhylidae). Boletim do Museu Nacional Nova Serie Rio de Janeiro, Brasil, vol. 527, p. 1-30.</t>
         </is>
